--- a/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel - Copy.xlsx
+++ b/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel - Copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazir\Desktop\UtilityC#ForWork\WindowsFormsApp1\WindowsFormsApp1\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC-ForWork-master\WindowsFormsApp1\WindowsFormsApp1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400F51AB-6B04-45D5-981C-52400AAE1F50}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E26533F2-A8BA-4FFD-BA7B-0B533E0ADB7B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3825" yWindow="345" windowWidth="15375" windowHeight="9240" activeTab="1" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Hellox</t>
   </si>
@@ -74,6 +74,21 @@
   </si>
   <si>
     <t>IntEntryDate</t>
+  </si>
+  <si>
+    <t>IntOnlineTime</t>
+  </si>
+  <si>
+    <t>14 / 03 / 2019</t>
+  </si>
+  <si>
+    <t>SCurrentTask</t>
+  </si>
+  <si>
+    <t>http://buhev-jira.conti.de:7090/browse/HD</t>
+  </si>
+  <si>
+    <t>15 / 03 / 2019</t>
   </si>
 </sst>
 </file>
@@ -83,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +122,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -125,10 +148,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -142,6 +166,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -149,7 +176,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D93A5A3-44B6-4C9B-AD12-9F7B6D444A69}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="H9:J18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,12 +522,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>0.90416666666666667</v>
+        <v>0.91180555555555554</v>
       </c>
       <c r="E7" s="5">
         <v>43772</v>
@@ -510,7 +543,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>0.90416666666666667</v>
+        <v>0.90902777777777777</v>
       </c>
       <c r="E8" s="5">
         <v>43772</v>
@@ -521,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>0.90416666666666667</v>
+        <v>0.90902777777777777</v>
       </c>
       <c r="E9" s="5">
         <v>43772</v>
@@ -534,7 +567,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>0.90416666666666667</v>
+        <v>0.90902777777777777</v>
       </c>
       <c r="E10" s="5">
         <v>43772</v>
@@ -547,7 +580,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>0.90416666666666667</v>
+        <v>0.90902777777777777</v>
       </c>
       <c r="E11" s="5">
         <v>43772</v>
@@ -560,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="1">
-        <v>0.90416666666666667</v>
+        <v>0.90902777777777777</v>
       </c>
       <c r="E12" s="5">
         <v>43772</v>
@@ -573,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="1">
-        <v>0.90416666666666667</v>
+        <v>0.90902777777777777</v>
       </c>
       <c r="E13" s="5">
         <v>43772</v>
@@ -586,7 +619,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="1">
-        <v>0.90486111111111101</v>
+        <v>0.90902777777777777</v>
       </c>
       <c r="E14" s="5">
         <v>43772</v>
@@ -599,7 +632,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="1">
-        <v>0.90486111111111101</v>
+        <v>0.90902777777777777</v>
       </c>
       <c r="E15" s="5">
         <v>43772</v>
@@ -608,15 +641,7 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.90486111111111101</v>
-      </c>
-      <c r="E16" s="5">
-        <v>43772</v>
-      </c>
+      <c r="D16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="6"/>
     </row>
@@ -625,10 +650,10 @@
         <v>11</v>
       </c>
       <c r="D17" s="1">
-        <v>0.90486111111111101</v>
+        <v>0.93819444444444444</v>
       </c>
       <c r="E17" s="5">
-        <v>43772</v>
+        <v>43802</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="6"/>
@@ -638,57 +663,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="1">
-        <v>0.90486111111111101</v>
-      </c>
-      <c r="E18" s="5">
-        <v>43772</v>
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.90486111111111101</v>
-      </c>
-      <c r="E19" s="5">
-        <v>43772</v>
-      </c>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>14</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.90486111111111101</v>
-      </c>
-      <c r="E20" s="5">
-        <v>43772</v>
-      </c>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>15</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.90486111111111101</v>
-      </c>
-      <c r="E21" s="5">
-        <v>43772</v>
-      </c>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>16</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.90486111111111101</v>
-      </c>
-      <c r="E22" s="5">
-        <v>43772</v>
-      </c>
+      <c r="D22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -698,20 +691,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A979B717-B8FF-48BA-A94D-3D97F4E204C9}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="7" width="11" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="4.5703125" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="38.140625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -721,46 +718,46 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
@@ -775,7 +772,7 @@
         <v>6</v>
       </c>
       <c r="J11" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -807,15 +804,15 @@
         <v>10</v>
       </c>
       <c r="J15" s="3">
-        <v>0.90486111111111101</v>
+        <v>0.41180555555555554</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="4">
-        <v>43772</v>
+      <c r="J16" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="9:10" x14ac:dyDescent="0.25">
@@ -824,13 +821,32 @@
       </c>
       <c r="J17">
         <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="9:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G6:N9"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J19" r:id="rId1" xr:uid="{94B8B718-C5A6-4037-953F-2D135917B5EA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>